--- a/C9300X-24Y-E_VI.xlsx
+++ b/C9300X-24Y-E_VI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\SPECC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5709A2BB-77CF-451D-AB1D-ED8C939379CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0EA417-419C-4EAE-9A25-2321A776EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4164" yWindow="48" windowWidth="11520" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C9300X-24Y-E" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Thông số kỹ thuật</t>
   </si>
@@ -159,12 +159,6 @@
     <t xml:space="preserve">Gồm 1 nguồn 715W AC mặc định
 100 to 240 VAC, 50 to 60 Hz
 Thiết kế modular, dự phòng 1+1 </t>
-  </si>
-  <si>
-    <t>12 tháng</t>
-  </si>
-  <si>
-    <t>Bảo hành phần cứng</t>
   </si>
 </sst>
 </file>
@@ -567,9 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -793,14 +789,6 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
